--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Variable name</t>
   </si>
@@ -94,6 +94,12 @@
     <t xml:space="preserve">The positive/negative impact a vineyard has on its immediate environment (to gate).</t>
   </si>
   <si>
+    <t xml:space="preserve">Aligns better with SWA and its goals as well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As simple as possible for the greatest denominator!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fertiliser</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t xml:space="preserve">The regional grape price of a vineyard</t>
   </si>
   <si>
+    <t xml:space="preserve">It is not always regional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impact on Vine and Vineyard Sward Vigour</t>
   </si>
   <si>
@@ -170,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">The number of times a tractor is used in a vineyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per season needs to be highlight</t>
   </si>
   <si>
     <t xml:space="preserve">Water Efficiency</t>
@@ -221,11 +233,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,17 +260,34 @@
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,21 +332,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -328,6 +370,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,272 +438,284 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="113.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>25</v>
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>41</v>
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>43</v>
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>45</v>
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>47</v>
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>49</v>
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>51</v>
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>53</v>
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>55</v>
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>57</v>
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>59</v>
+      <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>61</v>
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>63</v>
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -19,8 +19,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BP</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Agrochemical use instead of mix.
+Be explicit about the amount and that it is over a season.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Is legislated the right word?
+- Holding periods
+- Label rate
+- Max residue
+Ask Marcel…
+APVMA Dog book recommendations are further restrictions ontop of regulations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Keep it as simple as possible and aligned with the SWA goals</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Its not always regional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Emphasise that it is the total passes for a whole season</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">Variable name</t>
   </si>
@@ -94,12 +175,6 @@
     <t xml:space="preserve">The positive/negative impact a vineyard has on its immediate environment (to gate).</t>
   </si>
   <si>
-    <t xml:space="preserve">Aligns better with SWA and its goals as well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As simple as possible for the greatest denominator!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fertiliser</t>
   </si>
   <si>
@@ -118,9 +193,6 @@
     <t xml:space="preserve">The regional grape price of a vineyard</t>
   </si>
   <si>
-    <t xml:space="preserve">It is not always regional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Impact on Vine and Vineyard Sward Vigour</t>
   </si>
   <si>
@@ -160,7 +232,7 @@
     <t xml:space="preserve">Soil Compaction</t>
   </si>
   <si>
-    <t xml:space="preserve">The level of soil compaction caused by stress or weight applied to soil resulting in air being displaced and soil grains being tightly cumpled.</t>
+    <t xml:space="preserve">The level of soil compaction caused by stress or weight applied to soil resulting in air being displaced and soil grains being tightly coupled.</t>
   </si>
   <si>
     <t xml:space="preserve">Soil management</t>
@@ -179,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">The number of times a tractor is used in a vineyard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per season needs to be highlight</t>
   </si>
   <si>
     <t xml:space="preserve">Water Efficiency</t>
@@ -233,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,6 +323,44 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -265,26 +372,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -332,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,6 +445,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,13 +533,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.85"/>
@@ -539,183 +634,171 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -726,5 +809,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -32,7 +32,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Agrochemical use instead of mix.
 Be explicit about the amount and that it is over a season.</t>
@@ -46,7 +45,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Is legislated the right word?
 - Holding periods
@@ -64,7 +62,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Keep it as simple as possible and aligned with the SWA goals</t>
         </r>
@@ -77,7 +74,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Its not always regional</t>
         </r>
@@ -90,7 +86,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Emphasise that it is the total passes for a whole season</t>
         </r>
@@ -190,7 +185,7 @@
     <t xml:space="preserve">Grape Price</t>
   </si>
   <si>
-    <t xml:space="preserve">The regional grape price of a vineyard</t>
+    <t xml:space="preserve">Grape price per tonne</t>
   </si>
   <si>
     <t xml:space="preserve">Impact on Vine and Vineyard Sward Vigour</t>
@@ -307,7 +302,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -330,7 +324,6 @@
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -338,13 +331,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -352,7 +343,6 @@
       <color rgb="FFC9211E"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -360,21 +350,18 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,10 +523,10 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.85"/>

--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -19,84 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>BP</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Agrochemical use instead of mix.
-Be explicit about the amount and that it is over a season.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Is legislated the right word?
-- Holding periods
-- Label rate
-- Max residue
-Ask Marcel…
-APVMA Dog book recommendations are further restrictions ontop of regulations</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Keep it as simple as possible and aligned with the SWA goals</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Its not always regional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Emphasise that it is the total passes for a whole season</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Variable name</t>
   </si>
@@ -104,46 +28,46 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Water (Mega Litres used)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total amount of water consumed by a vineyard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agro-Chemical Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mixture of chemicals (fungicide, herbicide etc) sprayed on a vineyard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agro-chemical regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The legislated regulations for chemicals that are safe to people, the environment and animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canopy Management Practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Techniques employed in canopy management from winter pruning to harvest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conventional vs Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The use of synthetic inputs (fertiliser, sprays) vs the absence of synthetic inputs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover Crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The growing of volunteer or planted crops in the mid rows.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total electricity consumed by a vineyard.</t>
+    <t xml:space="preserve">Water use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of water used by a vineyard in a financial year (ML/Ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrochemical type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When selecting agrochemicals, those which are less hazardous to beneficial organisms and/or have a lower environmental impact are considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spray application number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of foliar spray applications used to control pests and diseases (spray applications/Ha/FY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrochemical legislation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The legislated regulations regarding agrochemical use as specified by the APVMA. Dog book recommendations are further restrictions for export wine production and to protect the reputation of Australian wine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vineyard floor management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of vineyard floor covered with a cover crop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pest and disease management methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All available methods of management are considered before a management program is chosen (i.e. biological, chemical, cultural, mechanical, and technological)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of electricity used by a vineyard in a financial year (kWh/Ha)</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity Price</t>
@@ -158,10 +82,44 @@
     <t xml:space="preserve">The sources of electricity purchased or created by a vineyard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total emissions created by a vineyard as calculated by NGA legislation</t>
+    <t xml:space="preserve">Renewable energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of energy that is renewable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG emissions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total amount of GHG emission produced by a vineyard in a financial year (Kg CO2e/Ha) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as calculated  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">by NGA legislation </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Environmental Impact</t>
@@ -170,16 +128,22 @@
     <t xml:space="preserve">The positive/negative impact a vineyard has on its immediate environment (to gate).</t>
   </si>
   <si>
-    <t xml:space="preserve">Fertiliser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total amount of fertiliser applied to a vineyard crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total amount of diesel, petrol, lpg and biodiesel used by a vineyard</t>
+    <t xml:space="preserve">Fertiliser use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of nitrogen (synthetic and organic) used by a vineyard in a financial year (Kg/Ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount of fuel (diesel, petrol, lpg and biodiesel) used by a vineyard in a financial year (L/Ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of fuel used that is renewable.</t>
   </si>
   <si>
     <t xml:space="preserve">Grape Price</t>
@@ -188,28 +152,16 @@
     <t xml:space="preserve">Grape price per tonne</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact on Vine and Vineyard Sward Vigour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The general health of a vine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrigation Leaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The removal of soil nutrients through the application of water on crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Supply and Demmand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of wine locally purchased and exported to the amount produced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Footprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The environmental cost of general operations including leakages, construction, oil spills etc</t>
+    <t xml:space="preserve">Nutrient leaching management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The depletion of nutrients in the grapevine root zone is minimised through best practice irrigation scheduling and soil moisture monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market supply and demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The relationship between the quantity of winegrapes produced and the quantity that consumers wish to buy</t>
   </si>
   <si>
     <t xml:space="preserve">Pest and Disease Management</t>
@@ -224,16 +176,16 @@
     <t xml:space="preserve">Which region the vineyard is located in as defined through the Wine Australia GI Regions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil Compaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The level of soil compaction caused by stress or weight applied to soil resulting in air being displaced and soil grains being tightly coupled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sum total of all operations, practices and treatments used to protect soil and enhance its performance.</t>
+    <t xml:space="preserve">Soil degradation management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas at risk of degradation via compaction or erosion are identified and actions to remediate and minimise degradation are taken (i.e. don’t traffic waterlogged soils, minimise cultivation, maintain vineyard floor cover with cover crops, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil organic carbon management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas with low or declining soil organic carbon levels are identified and actions to improve soil carbon levels are taken (i.e. minimise cultivation, maintain vineyard floor cover with cover crops, apply mulch or compost, etc.)</t>
   </si>
   <si>
     <t xml:space="preserve">Soil type</t>
@@ -242,22 +194,22 @@
     <t xml:space="preserve">The general (cross block) properties of soil in a vineyard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tractor Passes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times a tractor is used in a vineyard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The reduction of water waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Licence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The licensing of access to water resources.</t>
+    <t xml:space="preserve">Tractor passes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times a tractor passes over the whole vine row area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water use efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of water used per tonne of grapes produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water licences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current water licences and permits are adhered to</t>
   </si>
   <si>
     <t xml:space="preserve">Water Price</t>
@@ -266,10 +218,10 @@
     <t xml:space="preserve">The cost per unit of water paid for by a vineyard</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The turbidity, microorganisms and mineral content of water used by a vineyard</t>
+    <t xml:space="preserve">Water quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water used for irrigation is assessed annually for quality (pH, chloride, sodium absorption ratio, electrical conductivity, soluble solids, hardness, microbial contamination). Water that may case soil degradation or irrigation inefficiency is treated before use.</t>
   </si>
   <si>
     <t xml:space="preserve">Water Scarcity</t>
@@ -284,10 +236,16 @@
     <t xml:space="preserve">A vineyard’s regional climatic conditions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield and Quality targets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The set goals of yield and grape quality set by a vineyard’s contract.</t>
+    <t xml:space="preserve">Grape quality and yield targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The yield and quality targets of a vineyard block as outlines in the grape supply contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrochemical score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
 </sst>
 </file>
@@ -297,11 +255,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -324,6 +283,7 @@
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -331,35 +291,31 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00A933"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -406,12 +362,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,20 +387,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -503,10 +455,10 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -520,43 +472,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -564,87 +516,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="12" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -653,78 +605,78 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -732,60 +684,68 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="29" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="32" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +756,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t xml:space="preserve">Variable name</t>
   </si>
@@ -28,16 +28,25 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
+    <t xml:space="preserve">Quanification</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water use</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of water used by a vineyard in a financial year (ML/Ha)</t>
   </si>
   <si>
+    <t xml:space="preserve">High/Low</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agrochemical type</t>
   </si>
   <si>
     <t xml:space="preserve">When selecting agrochemicals, those which are less hazardous to beneficial organisms and/or have a lower environmental impact are considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes/No</t>
   </si>
   <si>
     <t xml:space="preserve">Spray application number</t>
@@ -94,7 +103,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00A933"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -104,7 +112,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00A933"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -113,7 +120,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00A933"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -236,16 +242,22 @@
     <t xml:space="preserve">A vineyard’s regional climatic conditions.</t>
   </si>
   <si>
+    <t xml:space="preserve">Wet/Dry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grape quality and yield targets</t>
   </si>
   <si>
     <t xml:space="preserve">The yield and quality targets of a vineyard block as outlines in the grape supply contract.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yield/Quality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agrochemical score</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,27 +307,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00A933"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -362,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,15 +380,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,66 +397,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -472,16 +405,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,261 +425,348 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
+      <c r="A10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>46</v>
+      <c r="A24" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
+      <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>51</v>
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
+      <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>55</v>
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>57</v>
+      <c r="A29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>61</v>
+      <c r="A31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>62</v>
+      <c r="A32" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/list of definitions.xlsx
+++ b/list of definitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t xml:space="preserve">Variable name</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Quanification</t>
+    <t xml:space="preserve">Quantification</t>
   </si>
   <si>
     <t xml:space="preserve">Water use</t>
@@ -100,32 +100,7 @@
     <t xml:space="preserve">GHG emissions</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Total amount of GHG emission produced by a vineyard in a financial year (Kg CO2e/Ha) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">as calculated  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">by NGA legislation </t>
-    </r>
+    <t xml:space="preserve">Total amount of GHG emission produced by a vineyard in a financial year (Kg CO2e/Ha) as calculated  by NGA legislation </t>
   </si>
   <si>
     <t xml:space="preserve">Environmental Impact</t>
@@ -233,7 +208,7 @@
     <t xml:space="preserve">Water Scarcity</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether the country is suffering drought or not (s defined by BOM)</t>
+    <t xml:space="preserve">Whether the country is suffering drought or not (is defined by BOM)</t>
   </si>
   <si>
     <t xml:space="preserve">Weather Conditions</t>
@@ -242,7 +217,7 @@
     <t xml:space="preserve">A vineyard’s regional climatic conditions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wet/Dry</t>
+    <t xml:space="preserve">ideal/not ideal</t>
   </si>
   <si>
     <t xml:space="preserve">Grape quality and yield targets</t>
@@ -252,12 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yield/Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrochemical score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -267,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -310,11 +279,6 @@
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,17 +369,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,17 +721,6 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
